--- a/data/apps-master/1987.xlsx
+++ b/data/apps-master/1987.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrisowen/Desktop/tranmere-web/data/apps-master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69B59C8A-FA60-6E4A-A338-463FA965BA31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FD4BBD-17BC-484A-989E-42A87DBAF45E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16380" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16380" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -2965,7 +2965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -4079,7 +4079,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:N68"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>

--- a/data/apps-master/1987.xlsx
+++ b/data/apps-master/1987.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrisowen/Desktop/tranmere-web/data/apps-master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FD4BBD-17BC-484A-989E-42A87DBAF45E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442D4E9D-881C-6449-8E9C-3A6C15C6617C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16380" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16320" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3380" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3384" uniqueCount="129">
   <si>
     <t>Date</t>
   </si>
@@ -378,9 +378,6 @@
     <t>Dave Higgins</t>
   </si>
   <si>
-    <t>Thorpe</t>
-  </si>
-  <si>
     <t>Eddie Bishop</t>
   </si>
   <si>
@@ -417,7 +414,10 @@
     <t>Own Goal</t>
   </si>
   <si>
-    <t>?</t>
+    <t>Andy Gorton</t>
+  </si>
+  <si>
+    <t>Shaun Garnett</t>
   </si>
 </sst>
 </file>
@@ -770,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45:E53"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1851,7 +1851,7 @@
         <v>15</v>
       </c>
       <c r="E53" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -1866,8 +1866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F31" sqref="F1:F31"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2965,8 +2965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3103,7 +3103,7 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F6">
         <v>11</v>
@@ -3123,7 +3123,7 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F7">
         <v>11</v>
@@ -3143,13 +3143,13 @@
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F8">
         <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -3166,7 +3166,7 @@
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F9">
         <v>11</v>
@@ -3186,7 +3186,7 @@
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F10">
         <v>11</v>
@@ -3206,7 +3206,7 @@
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F11">
         <v>11</v>
@@ -3226,7 +3226,7 @@
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F12">
         <v>11</v>
@@ -3246,7 +3246,7 @@
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F13">
         <v>11</v>
@@ -3266,7 +3266,7 @@
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F14">
         <v>11</v>
@@ -3286,7 +3286,7 @@
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F15">
         <v>11</v>
@@ -3306,7 +3306,7 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F16">
         <v>11</v>
@@ -3326,7 +3326,7 @@
         <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F17">
         <v>11</v>
@@ -3346,7 +3346,7 @@
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F18">
         <v>11</v>
@@ -3366,7 +3366,7 @@
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F19">
         <v>11</v>
@@ -3386,7 +3386,7 @@
         <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F20">
         <v>11</v>
@@ -3406,7 +3406,7 @@
         <v>15</v>
       </c>
       <c r="E21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F21">
         <v>11</v>
@@ -3426,7 +3426,7 @@
         <v>15</v>
       </c>
       <c r="E22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F22">
         <v>11</v>
@@ -3446,7 +3446,7 @@
         <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F23">
         <v>11</v>
@@ -3466,7 +3466,7 @@
         <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F24">
         <v>11</v>
@@ -3489,7 +3489,7 @@
         <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F25">
         <v>11</v>
@@ -3512,7 +3512,7 @@
         <v>15</v>
       </c>
       <c r="E26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F26">
         <v>11</v>
@@ -3532,7 +3532,7 @@
         <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F27">
         <v>11</v>
@@ -3555,7 +3555,7 @@
         <v>15</v>
       </c>
       <c r="E28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F28">
         <v>11</v>
@@ -3578,7 +3578,7 @@
         <v>15</v>
       </c>
       <c r="E29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F29">
         <v>11</v>
@@ -3621,7 +3621,7 @@
         <v>15</v>
       </c>
       <c r="E31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F31">
         <v>11</v>
@@ -3641,7 +3641,7 @@
         <v>15</v>
       </c>
       <c r="E32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F32">
         <v>11</v>
@@ -3661,7 +3661,7 @@
         <v>15</v>
       </c>
       <c r="E33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F33">
         <v>11</v>
@@ -3681,7 +3681,7 @@
         <v>15</v>
       </c>
       <c r="E34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F34">
         <v>11</v>
@@ -3701,7 +3701,7 @@
         <v>15</v>
       </c>
       <c r="E35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F35">
         <v>11</v>
@@ -3721,7 +3721,7 @@
         <v>15</v>
       </c>
       <c r="E36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F36">
         <v>11</v>
@@ -3741,7 +3741,7 @@
         <v>15</v>
       </c>
       <c r="E37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F37">
         <v>11</v>
@@ -3761,7 +3761,7 @@
         <v>15</v>
       </c>
       <c r="E38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F38">
         <v>11</v>
@@ -3781,13 +3781,13 @@
         <v>15</v>
       </c>
       <c r="E39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F39">
         <v>11</v>
       </c>
       <c r="G39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -3804,7 +3804,7 @@
         <v>15</v>
       </c>
       <c r="E40" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F40">
         <v>11</v>
@@ -3824,7 +3824,7 @@
         <v>15</v>
       </c>
       <c r="E41" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F41">
         <v>11</v>
@@ -3844,7 +3844,7 @@
         <v>15</v>
       </c>
       <c r="E42" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F42">
         <v>11</v>
@@ -3864,7 +3864,7 @@
         <v>15</v>
       </c>
       <c r="E43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F43">
         <v>11</v>
@@ -3884,7 +3884,7 @@
         <v>15</v>
       </c>
       <c r="E44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F44">
         <v>11</v>
@@ -3904,7 +3904,7 @@
         <v>15</v>
       </c>
       <c r="E45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F45">
         <v>11</v>
@@ -3924,7 +3924,7 @@
         <v>15</v>
       </c>
       <c r="E46" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F46">
         <v>11</v>
@@ -3944,7 +3944,7 @@
         <v>15</v>
       </c>
       <c r="E47" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F47">
         <v>11</v>
@@ -3964,13 +3964,13 @@
         <v>15</v>
       </c>
       <c r="E48" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F48">
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>88</v>
       </c>
@@ -3984,13 +3984,13 @@
         <v>15</v>
       </c>
       <c r="E49" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F49">
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>89</v>
       </c>
@@ -4004,13 +4004,13 @@
         <v>15</v>
       </c>
       <c r="E50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F50">
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>90</v>
       </c>
@@ -4024,13 +4024,16 @@
         <v>15</v>
       </c>
       <c r="E51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F51">
         <v>11</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G51" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>91</v>
       </c>
@@ -4044,13 +4047,13 @@
         <v>15</v>
       </c>
       <c r="E52" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F52">
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>92</v>
       </c>
@@ -4064,7 +4067,7 @@
         <v>15</v>
       </c>
       <c r="E53" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F53">
         <v>11</v>
@@ -4079,8 +4082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:N68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4143,7 +4146,7 @@
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -4160,7 +4163,7 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -4211,7 +4214,7 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -4228,7 +4231,7 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -4296,7 +4299,7 @@
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -4364,7 +4367,7 @@
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -4415,7 +4418,7 @@
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -4517,7 +4520,7 @@
         <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -4568,7 +4571,7 @@
         <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -4585,7 +4588,7 @@
         <v>15</v>
       </c>
       <c r="E28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -4619,7 +4622,7 @@
         <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -4636,7 +4639,7 @@
         <v>15</v>
       </c>
       <c r="E31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -4704,7 +4707,7 @@
         <v>15</v>
       </c>
       <c r="E35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -4721,7 +4724,7 @@
         <v>15</v>
       </c>
       <c r="E36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -4908,7 +4911,7 @@
         <v>15</v>
       </c>
       <c r="E47" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -4925,7 +4928,7 @@
         <v>15</v>
       </c>
       <c r="E48" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -4942,7 +4945,7 @@
         <v>15</v>
       </c>
       <c r="E49" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -4959,7 +4962,7 @@
         <v>15</v>
       </c>
       <c r="E50" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -5010,7 +5013,7 @@
         <v>15</v>
       </c>
       <c r="E53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -5027,7 +5030,7 @@
         <v>15</v>
       </c>
       <c r="E54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -5061,7 +5064,7 @@
         <v>15</v>
       </c>
       <c r="E56" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -5112,7 +5115,7 @@
         <v>15</v>
       </c>
       <c r="E59" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -5197,7 +5200,7 @@
         <v>15</v>
       </c>
       <c r="E64" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -5214,7 +5217,7 @@
         <v>15</v>
       </c>
       <c r="E65" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -5231,7 +5234,7 @@
         <v>15</v>
       </c>
       <c r="E66" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -5248,7 +5251,7 @@
         <v>15</v>
       </c>
       <c r="E67" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -5265,7 +5268,7 @@
         <v>15</v>
       </c>
       <c r="E68" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -5277,8 +5280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G36" sqref="F1:G36"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5335,7 +5338,7 @@
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -5355,7 +5358,7 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -5378,7 +5381,7 @@
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -5398,7 +5401,7 @@
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -5418,7 +5421,7 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -5438,7 +5441,7 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -5458,7 +5461,7 @@
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -5478,7 +5481,7 @@
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -5498,7 +5501,7 @@
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -5521,7 +5524,7 @@
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -5541,7 +5544,7 @@
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -5581,7 +5584,7 @@
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -5601,7 +5604,7 @@
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -5621,7 +5624,7 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -5641,7 +5644,7 @@
         <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -5661,7 +5664,7 @@
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F18">
         <v>2</v>
@@ -5681,7 +5684,7 @@
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -5701,7 +5704,7 @@
         <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F20">
         <v>2</v>
@@ -6376,8 +6379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G1:G17"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6434,7 +6437,7 @@
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -6454,7 +6457,7 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -6477,7 +6480,7 @@
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -6497,7 +6500,7 @@
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -6517,7 +6520,7 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -6537,7 +6540,7 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -6557,7 +6560,7 @@
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -6577,7 +6580,7 @@
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F9">
         <v>3</v>
@@ -6597,7 +6600,7 @@
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F10">
         <v>3</v>
@@ -6617,7 +6620,7 @@
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F11">
         <v>3</v>
@@ -6637,7 +6640,7 @@
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F12">
         <v>3</v>
@@ -6657,7 +6660,7 @@
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F13">
         <v>3</v>
@@ -6677,7 +6680,7 @@
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F14">
         <v>3</v>
@@ -6697,7 +6700,7 @@
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F15">
         <v>3</v>
@@ -6717,7 +6720,7 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F16">
         <v>3</v>
@@ -6737,7 +6740,7 @@
         <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F17">
         <v>3</v>
@@ -6757,7 +6760,7 @@
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F18">
         <v>3</v>
@@ -6777,7 +6780,7 @@
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F19">
         <v>3</v>
@@ -6797,7 +6800,7 @@
         <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F20">
         <v>3</v>
@@ -6817,7 +6820,7 @@
         <v>15</v>
       </c>
       <c r="E21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F21">
         <v>3</v>
@@ -6837,7 +6840,7 @@
         <v>15</v>
       </c>
       <c r="E22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F22">
         <v>3</v>
@@ -6857,7 +6860,7 @@
         <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F23">
         <v>3</v>
@@ -6877,7 +6880,7 @@
         <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F24">
         <v>3</v>
@@ -6897,7 +6900,7 @@
         <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F25">
         <v>3</v>
@@ -6917,7 +6920,7 @@
         <v>15</v>
       </c>
       <c r="E26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F26">
         <v>3</v>
@@ -6937,7 +6940,7 @@
         <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F27">
         <v>3</v>
@@ -6957,7 +6960,7 @@
         <v>15</v>
       </c>
       <c r="E28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F28">
         <v>3</v>
@@ -6977,7 +6980,7 @@
         <v>15</v>
       </c>
       <c r="E29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F29">
         <v>3</v>
@@ -6997,7 +7000,7 @@
         <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F30">
         <v>3</v>
@@ -7017,7 +7020,7 @@
         <v>15</v>
       </c>
       <c r="E31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F31">
         <v>3</v>
@@ -7037,7 +7040,7 @@
         <v>15</v>
       </c>
       <c r="E32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F32">
         <v>3</v>
@@ -7057,7 +7060,7 @@
         <v>15</v>
       </c>
       <c r="E33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F33">
         <v>3</v>
@@ -7077,7 +7080,7 @@
         <v>15</v>
       </c>
       <c r="E34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F34">
         <v>3</v>
@@ -7097,7 +7100,7 @@
         <v>15</v>
       </c>
       <c r="E35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F35">
         <v>3</v>
@@ -7117,7 +7120,7 @@
         <v>15</v>
       </c>
       <c r="E36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F36">
         <v>3</v>
@@ -7137,7 +7140,7 @@
         <v>15</v>
       </c>
       <c r="E37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F37">
         <v>3</v>
@@ -7157,7 +7160,7 @@
         <v>15</v>
       </c>
       <c r="E38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F38">
         <v>3</v>
@@ -7177,7 +7180,7 @@
         <v>15</v>
       </c>
       <c r="E39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F39">
         <v>3</v>
@@ -7197,7 +7200,7 @@
         <v>15</v>
       </c>
       <c r="E40" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F40">
         <v>3</v>
@@ -7217,7 +7220,7 @@
         <v>15</v>
       </c>
       <c r="E41" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F41">
         <v>3</v>
@@ -7237,7 +7240,7 @@
         <v>15</v>
       </c>
       <c r="E42" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F42">
         <v>3</v>
@@ -7257,7 +7260,7 @@
         <v>15</v>
       </c>
       <c r="E43" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F43">
         <v>3</v>
@@ -7277,7 +7280,7 @@
         <v>15</v>
       </c>
       <c r="E44" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F44">
         <v>3</v>
@@ -7297,7 +7300,7 @@
         <v>15</v>
       </c>
       <c r="E45" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F45">
         <v>3</v>
@@ -7317,7 +7320,7 @@
         <v>15</v>
       </c>
       <c r="E46" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F46">
         <v>3</v>
@@ -7337,7 +7340,7 @@
         <v>15</v>
       </c>
       <c r="E47" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F47">
         <v>3</v>
@@ -7357,7 +7360,7 @@
         <v>15</v>
       </c>
       <c r="E48" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F48">
         <v>3</v>
@@ -7377,7 +7380,7 @@
         <v>15</v>
       </c>
       <c r="E49" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F49">
         <v>3</v>
@@ -7397,7 +7400,7 @@
         <v>15</v>
       </c>
       <c r="E50" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F50">
         <v>3</v>
@@ -7417,7 +7420,7 @@
         <v>15</v>
       </c>
       <c r="E51" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F51">
         <v>3</v>
@@ -7437,7 +7440,7 @@
         <v>15</v>
       </c>
       <c r="E52" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F52">
         <v>3</v>
@@ -7457,7 +7460,7 @@
         <v>15</v>
       </c>
       <c r="E53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F53">
         <v>3</v>
@@ -7472,8 +7475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26:G54"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8102,7 +8105,7 @@
         <v>4</v>
       </c>
       <c r="G30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -8125,7 +8128,7 @@
         <v>4</v>
       </c>
       <c r="G31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -8148,7 +8151,7 @@
         <v>4</v>
       </c>
       <c r="G32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -8374,7 +8377,7 @@
         <v>4</v>
       </c>
       <c r="G43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -8437,7 +8440,7 @@
         <v>4</v>
       </c>
       <c r="G46" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -8589,8 +8592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8647,7 +8650,7 @@
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -8667,7 +8670,7 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -8687,7 +8690,7 @@
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -8707,7 +8710,7 @@
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -8727,7 +8730,7 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -8747,7 +8750,7 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -8767,7 +8770,7 @@
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -8787,7 +8790,7 @@
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -8807,7 +8810,7 @@
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -8827,7 +8830,7 @@
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -8847,7 +8850,7 @@
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="F12">
         <v>5</v>
@@ -8867,7 +8870,7 @@
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="F13">
         <v>5</v>
@@ -8887,7 +8890,7 @@
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="F14">
         <v>5</v>
@@ -8907,7 +8910,7 @@
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="F15">
         <v>5</v>
@@ -8927,7 +8930,7 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="F16">
         <v>5</v>
@@ -8947,7 +8950,7 @@
         <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F17">
         <v>5</v>
@@ -8967,7 +8970,7 @@
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F18">
         <v>5</v>
@@ -9036,7 +9039,7 @@
         <v>5</v>
       </c>
       <c r="G21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -9053,7 +9056,7 @@
         <v>15</v>
       </c>
       <c r="E22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F22">
         <v>5</v>
@@ -9073,7 +9076,7 @@
         <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F23">
         <v>5</v>
@@ -9093,7 +9096,7 @@
         <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F24">
         <v>5</v>
@@ -9113,7 +9116,7 @@
         <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F25">
         <v>5</v>
@@ -9133,7 +9136,7 @@
         <v>15</v>
       </c>
       <c r="E26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F26">
         <v>5</v>
@@ -9153,7 +9156,7 @@
         <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F27">
         <v>5</v>
@@ -9173,7 +9176,7 @@
         <v>15</v>
       </c>
       <c r="E28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F28">
         <v>5</v>
@@ -9193,7 +9196,7 @@
         <v>15</v>
       </c>
       <c r="E29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F29">
         <v>5</v>
@@ -9213,7 +9216,7 @@
         <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F30">
         <v>5</v>
@@ -9233,7 +9236,7 @@
         <v>15</v>
       </c>
       <c r="E31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F31">
         <v>5</v>
@@ -9253,7 +9256,7 @@
         <v>15</v>
       </c>
       <c r="E32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F32">
         <v>5</v>
@@ -9273,7 +9276,7 @@
         <v>15</v>
       </c>
       <c r="E33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F33">
         <v>5</v>
@@ -9293,7 +9296,7 @@
         <v>15</v>
       </c>
       <c r="E34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F34">
         <v>5</v>
@@ -9313,7 +9316,7 @@
         <v>15</v>
       </c>
       <c r="E35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F35">
         <v>5</v>
@@ -9333,7 +9336,7 @@
         <v>15</v>
       </c>
       <c r="E36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F36">
         <v>5</v>
@@ -9353,13 +9356,13 @@
         <v>15</v>
       </c>
       <c r="E37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F37">
         <v>5</v>
       </c>
       <c r="G37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -9376,7 +9379,7 @@
         <v>15</v>
       </c>
       <c r="E38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F38">
         <v>5</v>
@@ -9396,7 +9399,7 @@
         <v>15</v>
       </c>
       <c r="E39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F39">
         <v>5</v>
@@ -9416,13 +9419,13 @@
         <v>15</v>
       </c>
       <c r="E40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F40">
         <v>5</v>
       </c>
       <c r="G40" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -9439,13 +9442,13 @@
         <v>15</v>
       </c>
       <c r="E41" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F41">
         <v>5</v>
       </c>
       <c r="G41" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -9462,7 +9465,7 @@
         <v>15</v>
       </c>
       <c r="E42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F42">
         <v>5</v>
@@ -9482,7 +9485,7 @@
         <v>15</v>
       </c>
       <c r="E43" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F43">
         <v>5</v>
@@ -9502,7 +9505,7 @@
         <v>15</v>
       </c>
       <c r="E44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F44">
         <v>5</v>
@@ -9522,7 +9525,7 @@
         <v>15</v>
       </c>
       <c r="E45" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F45">
         <v>5</v>
@@ -9542,13 +9545,13 @@
         <v>15</v>
       </c>
       <c r="E46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F46">
         <v>5</v>
       </c>
       <c r="G46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -9565,13 +9568,13 @@
         <v>15</v>
       </c>
       <c r="E47" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F47">
         <v>5</v>
       </c>
       <c r="G47" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -9588,7 +9591,7 @@
         <v>15</v>
       </c>
       <c r="E48" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F48">
         <v>5</v>
@@ -9608,7 +9611,7 @@
         <v>15</v>
       </c>
       <c r="E49" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F49">
         <v>5</v>
@@ -9628,13 +9631,13 @@
         <v>15</v>
       </c>
       <c r="E50" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F50">
         <v>5</v>
       </c>
       <c r="G50" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -9651,7 +9654,7 @@
         <v>15</v>
       </c>
       <c r="E51" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="F51">
         <v>5</v>
@@ -9671,7 +9674,7 @@
         <v>15</v>
       </c>
       <c r="E52" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F52">
         <v>5</v>
@@ -9691,7 +9694,7 @@
         <v>15</v>
       </c>
       <c r="E53" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="F53">
         <v>5</v>
@@ -9706,8 +9709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10690,7 +10693,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>88</v>
       </c>
@@ -10710,7 +10713,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>89</v>
       </c>
@@ -10730,7 +10733,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>90</v>
       </c>
@@ -10749,8 +10752,11 @@
       <c r="F51">
         <v>6</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G51" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>91</v>
       </c>
@@ -10770,7 +10776,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>92</v>
       </c>
@@ -10799,8 +10805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10900,7 +10906,7 @@
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F4">
         <v>7</v>
@@ -10920,7 +10926,7 @@
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F5">
         <v>7</v>
@@ -10940,7 +10946,7 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F6">
         <v>7</v>
@@ -10960,7 +10966,7 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F7">
         <v>7</v>
@@ -10980,7 +10986,7 @@
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F8">
         <v>7</v>
@@ -11086,7 +11092,7 @@
         <v>7</v>
       </c>
       <c r="G13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -11243,7 +11249,7 @@
         <v>15</v>
       </c>
       <c r="E21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F21">
         <v>7</v>
@@ -11263,7 +11269,7 @@
         <v>15</v>
       </c>
       <c r="E22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F22">
         <v>7</v>
@@ -11283,7 +11289,7 @@
         <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F23">
         <v>7</v>
@@ -11303,7 +11309,7 @@
         <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F24">
         <v>7</v>
@@ -11323,7 +11329,7 @@
         <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F25">
         <v>7</v>
@@ -11343,7 +11349,7 @@
         <v>15</v>
       </c>
       <c r="E26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F26">
         <v>7</v>
@@ -11363,7 +11369,7 @@
         <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F27">
         <v>7</v>
@@ -11383,7 +11389,7 @@
         <v>15</v>
       </c>
       <c r="E28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F28">
         <v>7</v>
@@ -11403,7 +11409,7 @@
         <v>15</v>
       </c>
       <c r="E29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F29">
         <v>7</v>
@@ -11423,7 +11429,7 @@
         <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F30">
         <v>7</v>
@@ -11729,7 +11735,7 @@
         <v>7</v>
       </c>
       <c r="G45" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -11792,7 +11798,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>88</v>
       </c>
@@ -11812,7 +11818,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>89</v>
       </c>
@@ -11832,7 +11838,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>90</v>
       </c>
@@ -11852,7 +11858,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>91</v>
       </c>
@@ -11872,7 +11878,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>92</v>
       </c>
@@ -11890,6 +11896,9 @@
       </c>
       <c r="F53">
         <v>7</v>
+      </c>
+      <c r="G53" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -11901,8 +11910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12065,7 +12074,7 @@
         <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -12122,7 +12131,7 @@
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F10">
         <v>8</v>
@@ -12142,7 +12151,7 @@
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F11">
         <v>8</v>
@@ -12162,7 +12171,7 @@
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F12">
         <v>8</v>
@@ -12202,7 +12211,7 @@
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F14">
         <v>8</v>
@@ -12222,7 +12231,7 @@
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F15">
         <v>8</v>
@@ -12242,7 +12251,7 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F16">
         <v>8</v>
@@ -12262,7 +12271,7 @@
         <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F17">
         <v>8</v>
@@ -12282,7 +12291,7 @@
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F18">
         <v>8</v>
@@ -12302,7 +12311,7 @@
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F19">
         <v>8</v>
@@ -12322,7 +12331,7 @@
         <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F20">
         <v>8</v>
@@ -12342,7 +12351,7 @@
         <v>15</v>
       </c>
       <c r="E21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F21">
         <v>8</v>
@@ -12365,7 +12374,7 @@
         <v>15</v>
       </c>
       <c r="E22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F22">
         <v>8</v>
@@ -12385,7 +12394,7 @@
         <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F23">
         <v>8</v>
@@ -12405,7 +12414,7 @@
         <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F24">
         <v>8</v>
@@ -12425,7 +12434,7 @@
         <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F25">
         <v>8</v>
@@ -12445,7 +12454,7 @@
         <v>15</v>
       </c>
       <c r="E26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F26">
         <v>8</v>
@@ -12465,7 +12474,7 @@
         <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F27">
         <v>8</v>
@@ -12485,7 +12494,7 @@
         <v>15</v>
       </c>
       <c r="E28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F28">
         <v>8</v>
@@ -12505,7 +12514,7 @@
         <v>15</v>
       </c>
       <c r="E29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F29">
         <v>8</v>
@@ -12525,7 +12534,7 @@
         <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F30">
         <v>8</v>
@@ -12545,7 +12554,7 @@
         <v>15</v>
       </c>
       <c r="E31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F31">
         <v>8</v>
@@ -12565,7 +12574,7 @@
         <v>15</v>
       </c>
       <c r="E32" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F32">
         <v>8</v>
@@ -12585,7 +12594,7 @@
         <v>15</v>
       </c>
       <c r="E33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F33">
         <v>8</v>
@@ -12605,7 +12614,7 @@
         <v>15</v>
       </c>
       <c r="E34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F34">
         <v>8</v>
@@ -12625,7 +12634,7 @@
         <v>15</v>
       </c>
       <c r="E35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F35">
         <v>8</v>
@@ -12645,7 +12654,7 @@
         <v>15</v>
       </c>
       <c r="E36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F36">
         <v>8</v>
@@ -12665,7 +12674,7 @@
         <v>15</v>
       </c>
       <c r="E37" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F37">
         <v>8</v>
@@ -12685,7 +12694,7 @@
         <v>15</v>
       </c>
       <c r="E38" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F38">
         <v>8</v>
@@ -12705,7 +12714,7 @@
         <v>15</v>
       </c>
       <c r="E39" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F39">
         <v>8</v>
@@ -12725,7 +12734,7 @@
         <v>15</v>
       </c>
       <c r="E40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F40">
         <v>8</v>
@@ -12745,7 +12754,7 @@
         <v>15</v>
       </c>
       <c r="E41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F41">
         <v>8</v>
@@ -12765,7 +12774,7 @@
         <v>15</v>
       </c>
       <c r="E42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F42">
         <v>8</v>
@@ -12785,7 +12794,7 @@
         <v>15</v>
       </c>
       <c r="E43" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F43">
         <v>8</v>
@@ -12805,7 +12814,7 @@
         <v>15</v>
       </c>
       <c r="E44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F44">
         <v>8</v>
@@ -12825,7 +12834,7 @@
         <v>15</v>
       </c>
       <c r="E45" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F45">
         <v>8</v>
@@ -12845,7 +12854,7 @@
         <v>15</v>
       </c>
       <c r="E46" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F46">
         <v>8</v>
@@ -12865,7 +12874,7 @@
         <v>15</v>
       </c>
       <c r="E47" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F47">
         <v>8</v>
@@ -12885,7 +12894,7 @@
         <v>15</v>
       </c>
       <c r="E48" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F48">
         <v>8</v>
@@ -12905,7 +12914,7 @@
         <v>15</v>
       </c>
       <c r="E49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F49">
         <v>8</v>
@@ -12925,13 +12934,13 @@
         <v>15</v>
       </c>
       <c r="E50" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F50">
         <v>8</v>
       </c>
       <c r="G50" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -12948,7 +12957,7 @@
         <v>15</v>
       </c>
       <c r="E51" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="F51">
         <v>8</v>
@@ -12968,10 +12977,13 @@
         <v>15</v>
       </c>
       <c r="E52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F52">
         <v>8</v>
+      </c>
+      <c r="G52" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -12988,7 +13000,7 @@
         <v>15</v>
       </c>
       <c r="E53" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="F53">
         <v>8</v>
@@ -13003,8 +13015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H43" sqref="G1:H43"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13061,7 +13073,7 @@
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F2">
         <v>9</v>
@@ -13081,7 +13093,7 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F3">
         <v>9</v>
@@ -13167,7 +13179,7 @@
         <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -13270,7 +13282,7 @@
         <v>9</v>
       </c>
       <c r="G12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -13287,7 +13299,7 @@
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F13">
         <v>9</v>
@@ -13310,7 +13322,7 @@
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F14">
         <v>9</v>
@@ -13333,7 +13345,7 @@
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F15">
         <v>9</v>
@@ -13353,7 +13365,7 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F16">
         <v>9</v>
@@ -13416,7 +13428,7 @@
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F19">
         <v>9</v>
@@ -13436,7 +13448,7 @@
         <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F20">
         <v>9</v>
@@ -13459,7 +13471,7 @@
         <v>15</v>
       </c>
       <c r="E21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F21">
         <v>9</v>
@@ -13479,7 +13491,7 @@
         <v>15</v>
       </c>
       <c r="E22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F22">
         <v>9</v>
@@ -13499,7 +13511,7 @@
         <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F23">
         <v>9</v>
@@ -13519,7 +13531,7 @@
         <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F24">
         <v>9</v>
@@ -13542,7 +13554,7 @@
         <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F25">
         <v>9</v>
@@ -13562,7 +13574,7 @@
         <v>15</v>
       </c>
       <c r="E26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F26">
         <v>9</v>
@@ -13582,7 +13594,7 @@
         <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F27">
         <v>9</v>
@@ -13602,7 +13614,7 @@
         <v>15</v>
       </c>
       <c r="E28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F28">
         <v>9</v>
@@ -13622,7 +13634,7 @@
         <v>15</v>
       </c>
       <c r="E29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F29">
         <v>9</v>
@@ -13642,7 +13654,7 @@
         <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F30">
         <v>9</v>
@@ -13662,7 +13674,7 @@
         <v>15</v>
       </c>
       <c r="E31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F31">
         <v>9</v>
@@ -13682,7 +13694,7 @@
         <v>15</v>
       </c>
       <c r="E32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F32">
         <v>9</v>
@@ -13702,7 +13714,7 @@
         <v>15</v>
       </c>
       <c r="E33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F33">
         <v>9</v>
@@ -13722,7 +13734,7 @@
         <v>15</v>
       </c>
       <c r="E34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F34">
         <v>9</v>
@@ -13742,7 +13754,7 @@
         <v>15</v>
       </c>
       <c r="E35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F35">
         <v>9</v>
@@ -13762,7 +13774,7 @@
         <v>15</v>
       </c>
       <c r="E36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F36">
         <v>9</v>
@@ -13782,7 +13794,7 @@
         <v>15</v>
       </c>
       <c r="E37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F37">
         <v>9</v>
@@ -13802,7 +13814,7 @@
         <v>15</v>
       </c>
       <c r="E38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F38">
         <v>9</v>
@@ -13822,7 +13834,7 @@
         <v>15</v>
       </c>
       <c r="E39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F39">
         <v>9</v>
@@ -13842,7 +13854,7 @@
         <v>15</v>
       </c>
       <c r="E40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F40">
         <v>9</v>
@@ -13862,7 +13874,7 @@
         <v>15</v>
       </c>
       <c r="E41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F41">
         <v>9</v>
@@ -13882,7 +13894,7 @@
         <v>15</v>
       </c>
       <c r="E42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F42">
         <v>9</v>
@@ -13902,7 +13914,7 @@
         <v>15</v>
       </c>
       <c r="E43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F43">
         <v>9</v>
@@ -13922,7 +13934,7 @@
         <v>15</v>
       </c>
       <c r="E44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F44">
         <v>9</v>
@@ -13942,7 +13954,7 @@
         <v>15</v>
       </c>
       <c r="E45" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F45">
         <v>9</v>
@@ -13962,7 +13974,7 @@
         <v>15</v>
       </c>
       <c r="E46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F46">
         <v>9</v>
@@ -13982,7 +13994,7 @@
         <v>15</v>
       </c>
       <c r="E47" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F47">
         <v>9</v>
@@ -14002,7 +14014,7 @@
         <v>15</v>
       </c>
       <c r="E48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F48">
         <v>9</v>
@@ -14022,7 +14034,7 @@
         <v>15</v>
       </c>
       <c r="E49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F49">
         <v>9</v>
@@ -14042,7 +14054,7 @@
         <v>15</v>
       </c>
       <c r="E50" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F50">
         <v>9</v>
@@ -14062,7 +14074,7 @@
         <v>15</v>
       </c>
       <c r="E51" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F51">
         <v>9</v>
@@ -14082,7 +14094,7 @@
         <v>15</v>
       </c>
       <c r="E52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F52">
         <v>9</v>
@@ -14102,7 +14114,7 @@
         <v>15</v>
       </c>
       <c r="E53" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F53">
         <v>9</v>
